--- a/data/trans_dic/P4_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P4_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2</t>
+          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2 (tasa de respuesta: 93,2%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>28,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>23,63%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>44,15%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>45,75%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>32,35%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>30,35%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>31,24%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>31,13%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>29,89%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27,71%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>45,37%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>31,55%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>30,93%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>29,86%</t>
-        </is>
-      </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>47,67%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
+          <t>31,54%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>30,62%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>29,82%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>29,59%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>25,64%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
           <t>44,75%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>46,67%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,04; 35,79</t>
+          <t>26,59; 35,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,14; 37,91</t>
+          <t>26,97; 36,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,43; 32,77</t>
+          <t>24,85; 32,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,11; 34,24</t>
+          <t>25,19; 34,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,09; 48,34</t>
+          <t>19,56; 27,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,78; 36,16</t>
+          <t>40,18; 48,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,45; 34,31</t>
+          <t>41,25; 49,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,75; 34,68</t>
+          <t>28,92; 36,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,89; 33,56</t>
+          <t>26,35; 34,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>41,77; 49,06</t>
+          <t>27,65; 34,71</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,59; 34,43</t>
+          <t>26,62; 33,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>27,87; 34,44</t>
+          <t>23,52; 32,25</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>27,44; 32,86</t>
+          <t>41,27; 49,26</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>27,03; 32,59</t>
+          <t>43,65; 51,49</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>42,0; 47,82</t>
+          <t>28,93; 34,74</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>27,62; 33,89</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>27,13; 32,67</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>27,0; 32,8</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>22,42; 28,5</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>41,61; 47,62</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>43,68; 49,81</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>23,16%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>27,68%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>19,73%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>21,11%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>21,87%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>21,78%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21,56%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>22,88%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>19,69%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>26,2%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>17,8%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>18,72%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>18,63%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>20,6%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>18,64%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>18,6%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>20,54%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>20,86%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>21,58%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>27,07%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,59; 19,98</t>
+          <t>13,09; 20,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,06; 20,84</t>
+          <t>13,16; 21,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,27; 19,71</t>
+          <t>12,25; 19,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,06; 24,61</t>
+          <t>14,69; 25,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,3; 29,98</t>
+          <t>15,33; 24,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,14; 23,25</t>
+          <t>17,3; 30,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,15; 25,13</t>
+          <t>21,56; 36,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,79; 26,05</t>
+          <t>16,18; 23,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,45; 25,72</t>
+          <t>16,99; 25,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,85; 26,01</t>
+          <t>18,07; 26,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,38; 20,59</t>
+          <t>17,93; 25,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,89; 21,66</t>
+          <t>18,76; 27,65</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>16,17; 21,71</t>
+          <t>14,39; 26,08</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>17,89; 23,99</t>
+          <t>19,73; 33,76</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>17,28; 25,92</t>
+          <t>15,15; 20,5</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>16,05; 21,58</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>16,17; 21,6</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>17,68; 24,53</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>17,96; 24,47</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>17,21; 26,16</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>22,17; 32,8</t>
         </is>
       </c>
     </row>
@@ -1020,75 +1189,105 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>14,72%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>13,65%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>11,13%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11,4%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>13,96%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>12,3%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12,12%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16,5%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>15,31%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>15,36%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>13,38%</t>
-        </is>
-      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>15,32%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>14,44%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>13,58%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>15,47%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 30,36</t>
+          <t>10,08; 30,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,5; 34,45</t>
+          <t>9,1; 36,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,88; 24,96</t>
+          <t>6,95; 27,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,69; 28,64</t>
+          <t>7,42; 29,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>7,35; 23,99</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>8,87; 20,09</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 18,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,71; 20,7</t>
+          <t>8,34; 20,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,54; 19,28</t>
+          <t>6,45; 18,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>8,58; 21,02</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7,55; 18,46</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9,53; 26,19</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>10,64; 22,74</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>10,29; 24,97</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>9,39; 20,41</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>8,85; 21,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>10,71; 23,04</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>9,36; 25,46</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>9,4; 20,78</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>9,04; 22,08</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>10,36; 23,29</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>20,86%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>39,3%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>25,54%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>41,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>25,77%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>39,96%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>43,46%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>24,33%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>24,39%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>23,62%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>24,25%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>24,1%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>24,21%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>22,74%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>39,62%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>42,36%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,7; 26,33</t>
+          <t>20,62; 26,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,0; 27,55</t>
+          <t>20,96; 27,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,87; 23,94</t>
+          <t>19,06; 24,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,7; 27,07</t>
+          <t>20,89; 27,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,62; 42,77</t>
+          <t>18,06; 24,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,26; 28,17</t>
+          <t>36,06; 43,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,16; 27,34</t>
+          <t>38,05; 45,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,29; 28,04</t>
+          <t>23,3; 27,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,8; 27,38</t>
+          <t>21,97; 27,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,51; 43,93</t>
+          <t>23,34; 28,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22,49; 26,17</t>
+          <t>22,7; 27,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,43; 26,69</t>
+          <t>22,11; 27,74</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>21,8; 25,47</t>
+          <t>36,16; 43,44</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>22,36; 26,34</t>
+          <t>40,03; 47,14</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>37,29; 42,11</t>
+          <t>22,68; 26,34</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>22,02; 26,17</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>21,9; 25,56</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>22,47; 26,4</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>20,8; 25,06</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>36,99; 42,13</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>39,88; 44,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2 (tasa de respuesta: 93,2%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>319.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>392.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>325.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>396.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>399.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>576.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>584.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>465589</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>480050</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>423286</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>437764</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>350294</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>84859</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>88363</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>489374</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>462726</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>483331</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>465958</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>397992</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>82281</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>84208</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>954962</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>942776</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>906617</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>903723</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>748286</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>167141</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>172570</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>402757; 539677</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>413187; 562016</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>369535; 489168</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>376723; 522240</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>289933; 413615</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>77223; 93495</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>79673; 95934</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>437478; 546220</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>407650; 539938</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>429324; 539042</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>415002; 516611</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>337892; 463312</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>74836; 89325</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>77100; 90944</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>875876; 1051757</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>850423; 1043592</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>824793; 993102</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>824534; 1001934</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>654383; 831829</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>155426; 177861</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>161520; 184203</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>201863</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>211793</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>194536</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>244191</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>232963</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13383</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16903</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>221881</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>237736</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>244013</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>237338</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>224517</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9537</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>11284</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>423744</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>449529</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>438549</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>481530</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>457479</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>22921</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>28188</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>164468; 255899</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>167111; 268856</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>151525; 246873</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>182622; 311029</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>185666; 300277</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9996; 17452</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>13167; 22201</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>181951; 265733</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>194126; 289328</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>202448; 295629</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>197382; 281713</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>184094; 271376</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>6971; 12632</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>8501; 14542</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>360685; 487897</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>387168; 520406</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>381214; 509097</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>414399; 575011</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>393815; 536608</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>18284; 27789</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>23083; 34159</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>63815</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>65535</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>50710</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>55960</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>50964</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>43091</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>37302</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>45471</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>39839</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>41970</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>106906</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>102837</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>96181</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>95799</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>92934</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>38527; 118134</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>35037; 140151</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>26605; 103517</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28886; 113600</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25447; 83056</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26343; 65280</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21117; 60305</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27943; 68460</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24813; 60668</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24246; 66626</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>74734; 160776</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>66691; 181378</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>66615; 147244</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>64894; 158520</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>62211; 139840</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>319.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>351.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>349.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>604.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>512.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>609.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>619.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>431.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>658.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>677.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>731266</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>757378</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>668532</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>737916</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>634220</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>98243</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>105266</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>754346</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>737764</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>772815</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>743135</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>664479</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>91818</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>95492</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1485612</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1495142</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1441347</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1481051</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1298699</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>190061</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>200758</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>650185; 825219</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>667909; 874507</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>592157; 772989</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>653458; 845431</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>549066; 730085</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>90128; 108047</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>96738; 115164</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>688076; 826629</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>662777; 814638</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>700030; 846115</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>678439; 816950</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>590808; 741236</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>83079; 99803</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>87945; 103580</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1384556; 1608054</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1365922; 1623278</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1337002; 1560537</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>1374058; 1614866</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1188095; 1431460</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>177458; 202111</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>188997; 212848</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
